--- a/2025_2026/BoxScores/December.xlsx
+++ b/2025_2026/BoxScores/December.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2025_2026\BoxScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A858D600-D6C1-457A-BAAA-EAABCEBBA460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FD7259-317A-4F22-BE0B-02E94F4770C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -44,61 +44,62 @@
     <sheet name="Scores (12-30-25)" sheetId="79" r:id="rId29"/>
     <sheet name="Scores (12-31-25)" sheetId="80" r:id="rId30"/>
     <sheet name="Offense (12-1-25)" sheetId="5" r:id="rId31"/>
-    <sheet name="Goalies (12-1-25)" sheetId="4" r:id="rId32"/>
-    <sheet name="Offense (12-2-25)" sheetId="7" r:id="rId33"/>
-    <sheet name="Goalies (12-2-25)" sheetId="8" r:id="rId34"/>
-    <sheet name="Offense (12-3-25)" sheetId="10" r:id="rId35"/>
-    <sheet name="Goalies (12-3-25)" sheetId="11" r:id="rId36"/>
-    <sheet name="Offense (12-4-25)" sheetId="13" r:id="rId37"/>
-    <sheet name="Goalies (12-4-25)" sheetId="14" r:id="rId38"/>
-    <sheet name="Offense (12-5-25)" sheetId="16" r:id="rId39"/>
-    <sheet name="Goalies (12-5-25)" sheetId="17" r:id="rId40"/>
-    <sheet name="Offense (12-6-25)" sheetId="19" r:id="rId41"/>
-    <sheet name="Goalies (12-6-25)" sheetId="20" r:id="rId42"/>
-    <sheet name="Offense (12-7-25)" sheetId="22" r:id="rId43"/>
-    <sheet name="Goalies (12-7-25)" sheetId="23" r:id="rId44"/>
-    <sheet name="Offense (12-8-25)" sheetId="25" r:id="rId45"/>
-    <sheet name="Goalies (12-8-25)" sheetId="26" r:id="rId46"/>
-    <sheet name="Offense (12-9-25)" sheetId="28" r:id="rId47"/>
-    <sheet name="Goalies (12-9-25)" sheetId="29" r:id="rId48"/>
-    <sheet name="Offense (12-10-25)" sheetId="31" r:id="rId49"/>
-    <sheet name="Goalies (12-10-25)" sheetId="32" r:id="rId50"/>
-    <sheet name="Offense (12-11-25)" sheetId="34" r:id="rId51"/>
-    <sheet name="Goalies (12-11-25)" sheetId="35" r:id="rId52"/>
-    <sheet name="Offense (12-12-25)" sheetId="37" r:id="rId53"/>
-    <sheet name="Goalies (12-12-25)" sheetId="38" r:id="rId54"/>
-    <sheet name="Offense (12-13-25)" sheetId="40" r:id="rId55"/>
-    <sheet name="Goalies (12-13-25)" sheetId="41" r:id="rId56"/>
-    <sheet name="Offense (12-14-25)" sheetId="43" r:id="rId57"/>
-    <sheet name="Goalies (12-14-25)" sheetId="44" r:id="rId58"/>
-    <sheet name="Offense (12-15-25)" sheetId="46" r:id="rId59"/>
-    <sheet name="Goalies (12-15-25)" sheetId="47" r:id="rId60"/>
-    <sheet name="Offense (12-16-25)" sheetId="48" r:id="rId61"/>
-    <sheet name="Goalies (12-16-25)" sheetId="49" r:id="rId62"/>
-    <sheet name="Offense (12-17-25)" sheetId="52" r:id="rId63"/>
-    <sheet name="Goalies (12-17-25)" sheetId="53" r:id="rId64"/>
-    <sheet name="Offense (12-18-25)" sheetId="55" r:id="rId65"/>
-    <sheet name="Goalies (12-18-25)" sheetId="56" r:id="rId66"/>
-    <sheet name="Offense (12-19-25)" sheetId="58" r:id="rId67"/>
-    <sheet name="Goalies (12-19-25)" sheetId="59" r:id="rId68"/>
-    <sheet name="Offense (12-20-25)" sheetId="61" r:id="rId69"/>
-    <sheet name="Goalies (12-20-25)" sheetId="62" r:id="rId70"/>
-    <sheet name="Offense (12-21-25)" sheetId="64" r:id="rId71"/>
-    <sheet name="Goalies (12-21-25)" sheetId="65" r:id="rId72"/>
-    <sheet name="Offense (12-22-25)" sheetId="67" r:id="rId73"/>
-    <sheet name="Goalies (12-22-25)" sheetId="68" r:id="rId74"/>
-    <sheet name="Offense (12-23-25)" sheetId="70" r:id="rId75"/>
-    <sheet name="Goalies (12-23-25)" sheetId="71" r:id="rId76"/>
-    <sheet name="Offense (12-27-25)" sheetId="73" r:id="rId77"/>
-    <sheet name="Goalies (12-27-25)" sheetId="74" r:id="rId78"/>
-    <sheet name="Offense (12-28-25)" sheetId="76" r:id="rId79"/>
-    <sheet name="Goalies (12-28-25)" sheetId="77" r:id="rId80"/>
-    <sheet name="Offense (12-29-25)" sheetId="81" r:id="rId81"/>
-    <sheet name="Goalies (12-29-25)" sheetId="82" r:id="rId82"/>
-    <sheet name="Offense (12-30-25)" sheetId="83" r:id="rId83"/>
-    <sheet name="Goalies (12-30-25)" sheetId="84" r:id="rId84"/>
-    <sheet name="Offense (12-31-25)" sheetId="85" r:id="rId85"/>
-    <sheet name="Goalies (12-31-25)" sheetId="86" r:id="rId86"/>
+    <sheet name="Rosters (Offense - 23)" sheetId="87" r:id="rId32"/>
+    <sheet name="Goalies (12-1-25)" sheetId="4" r:id="rId33"/>
+    <sheet name="Offense (12-2-25)" sheetId="7" r:id="rId34"/>
+    <sheet name="Goalies (12-2-25)" sheetId="8" r:id="rId35"/>
+    <sheet name="Offense (12-3-25)" sheetId="10" r:id="rId36"/>
+    <sheet name="Goalies (12-3-25)" sheetId="11" r:id="rId37"/>
+    <sheet name="Offense (12-4-25)" sheetId="13" r:id="rId38"/>
+    <sheet name="Goalies (12-4-25)" sheetId="14" r:id="rId39"/>
+    <sheet name="Offense (12-5-25)" sheetId="16" r:id="rId40"/>
+    <sheet name="Goalies (12-5-25)" sheetId="17" r:id="rId41"/>
+    <sheet name="Offense (12-6-25)" sheetId="19" r:id="rId42"/>
+    <sheet name="Goalies (12-6-25)" sheetId="20" r:id="rId43"/>
+    <sheet name="Offense (12-7-25)" sheetId="22" r:id="rId44"/>
+    <sheet name="Goalies (12-7-25)" sheetId="23" r:id="rId45"/>
+    <sheet name="Offense (12-8-25)" sheetId="25" r:id="rId46"/>
+    <sheet name="Goalies (12-8-25)" sheetId="26" r:id="rId47"/>
+    <sheet name="Offense (12-9-25)" sheetId="28" r:id="rId48"/>
+    <sheet name="Goalies (12-9-25)" sheetId="29" r:id="rId49"/>
+    <sheet name="Offense (12-10-25)" sheetId="31" r:id="rId50"/>
+    <sheet name="Goalies (12-10-25)" sheetId="32" r:id="rId51"/>
+    <sheet name="Offense (12-11-25)" sheetId="34" r:id="rId52"/>
+    <sheet name="Goalies (12-11-25)" sheetId="35" r:id="rId53"/>
+    <sheet name="Offense (12-12-25)" sheetId="37" r:id="rId54"/>
+    <sheet name="Goalies (12-12-25)" sheetId="38" r:id="rId55"/>
+    <sheet name="Offense (12-13-25)" sheetId="40" r:id="rId56"/>
+    <sheet name="Goalies (12-13-25)" sheetId="41" r:id="rId57"/>
+    <sheet name="Offense (12-14-25)" sheetId="43" r:id="rId58"/>
+    <sheet name="Goalies (12-14-25)" sheetId="44" r:id="rId59"/>
+    <sheet name="Offense (12-15-25)" sheetId="46" r:id="rId60"/>
+    <sheet name="Goalies (12-15-25)" sheetId="47" r:id="rId61"/>
+    <sheet name="Offense (12-16-25)" sheetId="48" r:id="rId62"/>
+    <sheet name="Goalies (12-16-25)" sheetId="49" r:id="rId63"/>
+    <sheet name="Offense (12-17-25)" sheetId="52" r:id="rId64"/>
+    <sheet name="Goalies (12-17-25)" sheetId="53" r:id="rId65"/>
+    <sheet name="Offense (12-18-25)" sheetId="55" r:id="rId66"/>
+    <sheet name="Goalies (12-18-25)" sheetId="56" r:id="rId67"/>
+    <sheet name="Offense (12-19-25)" sheetId="58" r:id="rId68"/>
+    <sheet name="Goalies (12-19-25)" sheetId="59" r:id="rId69"/>
+    <sheet name="Offense (12-20-25)" sheetId="61" r:id="rId70"/>
+    <sheet name="Goalies (12-20-25)" sheetId="62" r:id="rId71"/>
+    <sheet name="Offense (12-21-25)" sheetId="64" r:id="rId72"/>
+    <sheet name="Goalies (12-21-25)" sheetId="65" r:id="rId73"/>
+    <sheet name="Offense (12-22-25)" sheetId="67" r:id="rId74"/>
+    <sheet name="Goalies (12-22-25)" sheetId="68" r:id="rId75"/>
+    <sheet name="Offense (12-23-25)" sheetId="70" r:id="rId76"/>
+    <sheet name="Goalies (12-23-25)" sheetId="71" r:id="rId77"/>
+    <sheet name="Offense (12-27-25)" sheetId="73" r:id="rId78"/>
+    <sheet name="Goalies (12-27-25)" sheetId="74" r:id="rId79"/>
+    <sheet name="Offense (12-28-25)" sheetId="76" r:id="rId80"/>
+    <sheet name="Goalies (12-28-25)" sheetId="77" r:id="rId81"/>
+    <sheet name="Offense (12-29-25)" sheetId="81" r:id="rId82"/>
+    <sheet name="Goalies (12-29-25)" sheetId="82" r:id="rId83"/>
+    <sheet name="Offense (12-30-25)" sheetId="83" r:id="rId84"/>
+    <sheet name="Goalies (12-30-25)" sheetId="84" r:id="rId85"/>
+    <sheet name="Offense (12-31-25)" sheetId="85" r:id="rId86"/>
+    <sheet name="Goalies (12-31-25)" sheetId="86" r:id="rId87"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="864">
   <si>
     <t>Winnipeg Jets</t>
   </si>
@@ -520,6 +521,2199 @@
   </si>
   <si>
     <t>December 31st, 2025</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Vladislav Namestnikov</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Tyler Myers</t>
+  </si>
+  <si>
+    <t>Sean Durzi</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>William Nylander</t>
+  </si>
+  <si>
+    <t>Zemgus Girgensons</t>
+  </si>
+  <si>
+    <t>Tyler Tucker</t>
+  </si>
+  <si>
+    <t>Vince Dunn</t>
+  </si>
+  <si>
+    <t>Zack Ostapchuk</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>Tanner Pearson</t>
+  </si>
+  <si>
+    <t>Trevor van Riemsdyk</t>
+  </si>
+  <si>
+    <t>Zach Whitecloud</t>
+  </si>
+  <si>
+    <t>Tom Willander</t>
+  </si>
+  <si>
+    <t>Olli Maatta</t>
+  </si>
+  <si>
+    <t>Troy Stecher</t>
+  </si>
+  <si>
+    <t>Yanni Gourde</t>
+  </si>
+  <si>
+    <t>Robert Thomas</t>
+  </si>
+  <si>
+    <t>Tye Kartye</t>
+  </si>
+  <si>
+    <t>William Eklund</t>
+  </si>
+  <si>
+    <t>Parker Ford</t>
+  </si>
+  <si>
+    <t>Tom Wilson</t>
+  </si>
+  <si>
+    <t>William Karlsson</t>
+  </si>
+  <si>
+    <t>Quinn Hughes</t>
+  </si>
+  <si>
+    <t>Nick Schmaltz</t>
+  </si>
+  <si>
+    <t>Steven Lorentz</t>
+  </si>
+  <si>
+    <t>Victor Hedman</t>
+  </si>
+  <si>
+    <t>Pius Suter</t>
+  </si>
+  <si>
+    <t>Shane Wright</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Nino Niederreiter</t>
+  </si>
+  <si>
+    <t>Sonny Milano</t>
+  </si>
+  <si>
+    <t>Thomas Hertl</t>
+  </si>
+  <si>
+    <t>Pierre-Olivier Joseph</t>
+  </si>
+  <si>
+    <t>Nick DeSimone</t>
+  </si>
+  <si>
+    <t>Simon Benoit</t>
+  </si>
+  <si>
+    <t>Steven Santini</t>
+  </si>
+  <si>
+    <t>Philip Broberg</t>
+  </si>
+  <si>
+    <t>Ryker Evans</t>
+  </si>
+  <si>
+    <t>Vincent Iorio</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
+    <t>Ryan Leonard</t>
+  </si>
+  <si>
+    <t>Shea Theodore</t>
+  </si>
+  <si>
+    <t>Nils Aman</t>
+  </si>
+  <si>
+    <t>Nate Schmidt</t>
+  </si>
+  <si>
+    <t>Scott Laughton</t>
+  </si>
+  <si>
+    <t>Pontus Holmberg</t>
+  </si>
+  <si>
+    <t>Pavel Buchnevich</t>
+  </si>
+  <si>
+    <t>Ryan Winterton</t>
+  </si>
+  <si>
+    <t>Vincent Desharnais</t>
+  </si>
+  <si>
+    <t>Morgan Barron</t>
+  </si>
+  <si>
+    <t>Rasmus Sandin</t>
+  </si>
+  <si>
+    <t>Reilly Smith</t>
+  </si>
+  <si>
+    <t>Max Sasson</t>
+  </si>
+  <si>
+    <t>Mikhail Sergachev</t>
+  </si>
+  <si>
+    <t>Philippe Myers</t>
+  </si>
+  <si>
+    <t>Oliver Bjorkstrand</t>
+  </si>
+  <si>
+    <t>Oskar Sundqvist</t>
+  </si>
+  <si>
+    <t>Ryan Lindgren</t>
+  </si>
+  <si>
+    <t>Tyler Toffoli</t>
+  </si>
+  <si>
+    <t>Mark Scheifele</t>
+  </si>
+  <si>
+    <t>Pierre-Luc Dubois</t>
+  </si>
+  <si>
+    <t>Pavel Dorofeyev</t>
+  </si>
+  <si>
+    <t>Marcus Pettersson</t>
+  </si>
+  <si>
+    <t>Michael Carcone</t>
+  </si>
+  <si>
+    <t>Oliver Ekman-Larsson</t>
+  </si>
+  <si>
+    <t>Nikita Kucherov</t>
+  </si>
+  <si>
+    <t>Nick Bjugstad</t>
+  </si>
+  <si>
+    <t>Oscar Fisker Molgaard</t>
+  </si>
+  <si>
+    <t>Ty Dellandrea</t>
+  </si>
+  <si>
+    <t>Luke Schenn</t>
+  </si>
+  <si>
+    <t>Nic Dowd</t>
+  </si>
+  <si>
+    <t>Noah Hanifin</t>
+  </si>
+  <si>
+    <t>Lukas Reichel</t>
+  </si>
+  <si>
+    <t>Logan Cooley</t>
+  </si>
+  <si>
+    <t>Nicolas Roy</t>
+  </si>
+  <si>
+    <t>Nick Paul</t>
+  </si>
+  <si>
+    <t>Nathan Walker</t>
+  </si>
+  <si>
+    <t>Matty Beniers</t>
+  </si>
+  <si>
+    <t>Timothy Lilegren</t>
+  </si>
+  <si>
+    <t>Logan Stanley</t>
+  </si>
+  <si>
+    <t>Matt Roy</t>
+  </si>
+  <si>
+    <t>Mitch Marner</t>
+  </si>
+  <si>
+    <t>Linus Karlsson</t>
+  </si>
+  <si>
+    <t>Liam O'Brien</t>
+  </si>
+  <si>
+    <t>Nicholas Robertson</t>
+  </si>
+  <si>
+    <t>Mitchell Chaffee</t>
+  </si>
+  <si>
+    <t>Matthew Kessel</t>
+  </si>
+  <si>
+    <t>Mason Marchment</t>
+  </si>
+  <si>
+    <t>Shakir Mukhamadullin</t>
+  </si>
+  <si>
+    <t>Kyle Connor</t>
+  </si>
+  <si>
+    <t>Martin Fehervary</t>
+  </si>
+  <si>
+    <t>Mark Stone</t>
+  </si>
+  <si>
+    <t>Kiefer Sherwood</t>
+  </si>
+  <si>
+    <t>Lawson Crouse</t>
+  </si>
+  <si>
+    <t>Morgan Rielly</t>
+  </si>
+  <si>
+    <t>Jake Guentzel</t>
+  </si>
+  <si>
+    <t>Mathieu Joseph</t>
+  </si>
+  <si>
+    <t>Kaapo Kakko</t>
+  </si>
+  <si>
+    <t>Sam Dickinson</t>
+  </si>
+  <si>
+    <t>Josh Morrissey</t>
+  </si>
+  <si>
+    <t>Justin Sourdif</t>
+  </si>
+  <si>
+    <t>Keegan Kolesar</t>
+  </si>
+  <si>
+    <t>Jonathan Lekkerimaki</t>
+  </si>
+  <si>
+    <t>Kevin Stenlund</t>
+  </si>
+  <si>
+    <t>Max Domi</t>
+  </si>
+  <si>
+    <t>Jack Finley</t>
+  </si>
+  <si>
+    <t>Logan Mailloux</t>
+  </si>
+  <si>
+    <t>Josh Mahura</t>
+  </si>
+  <si>
+    <t>Ryan Reaves</t>
+  </si>
+  <si>
+    <t>Jonathan Toews</t>
+  </si>
+  <si>
+    <t>John Carlson</t>
+  </si>
+  <si>
+    <t>Kaedan Korczak</t>
+  </si>
+  <si>
+    <t>Jake DeBrusk</t>
+  </si>
+  <si>
+    <t>Kevin Rooney</t>
+  </si>
+  <si>
+    <t>Matthew Knies</t>
+  </si>
+  <si>
+    <t>J.J. Moser</t>
+  </si>
+  <si>
+    <t>Justin Faulk</t>
+  </si>
+  <si>
+    <t>Jordan Eberle</t>
+  </si>
+  <si>
+    <t>Philipp Kurashev</t>
+  </si>
+  <si>
+    <t>Gustav Nyquist</t>
+  </si>
+  <si>
+    <t>Jakob Chychrun</t>
+  </si>
+  <si>
+    <t>Jeremy Lauzon</t>
+  </si>
+  <si>
+    <t>Filip Hronek</t>
+  </si>
+  <si>
+    <t>Kailer Yamamoto</t>
+  </si>
+  <si>
+    <t>Matias Maccelli</t>
+  </si>
+  <si>
+    <t>Gage Goncalves</t>
+  </si>
+  <si>
+    <t>Jordan Kyrou</t>
+  </si>
+  <si>
+    <t>Jared McCann</t>
+  </si>
+  <si>
+    <t>Patrick Giles</t>
+  </si>
+  <si>
+    <t>Gabriel Vilardi</t>
+  </si>
+  <si>
+    <t>Hendrix Lapierre</t>
+  </si>
+  <si>
+    <t>Jack Eichel</t>
+  </si>
+  <si>
+    <t>Evander Kane</t>
+  </si>
+  <si>
+    <t>John Marino</t>
+  </si>
+  <si>
+    <t>John Tavares</t>
+  </si>
+  <si>
+    <t>Emil Lilleberg</t>
+  </si>
+  <si>
+    <t>Jimmy Snuggerud</t>
+  </si>
+  <si>
+    <t>Jani Nyman</t>
+  </si>
+  <si>
+    <t>Nick Leddy</t>
+  </si>
+  <si>
+    <t>Elias Salomonsson</t>
+  </si>
+  <si>
+    <t>Ethen Frank</t>
+  </si>
+  <si>
+    <t>Ivan Barbashev</t>
+  </si>
+  <si>
+    <t>Elias Pettersson</t>
+  </si>
+  <si>
+    <t>JJ Peterka</t>
+  </si>
+  <si>
+    <t>Jake McCabe</t>
+  </si>
+  <si>
+    <t>Dominic James</t>
+  </si>
+  <si>
+    <t>Jake Neighbours</t>
+  </si>
+  <si>
+    <t>Jamie Oleksiak</t>
+  </si>
+  <si>
+    <t>Michael Misa</t>
+  </si>
+  <si>
+    <t>Dylan Samberg</t>
+  </si>
+  <si>
+    <t>Dylan Strome</t>
+  </si>
+  <si>
+    <t>Colton Sissons</t>
+  </si>
+  <si>
+    <t>Elias N-Pettersson</t>
+  </si>
+  <si>
+    <t>Jack McBain</t>
+  </si>
+  <si>
+    <t>Jacob Quillan</t>
+  </si>
+  <si>
+    <t>Declan Carlile</t>
+  </si>
+  <si>
+    <t>Hunter Skinner</t>
+  </si>
+  <si>
+    <t>Jaden Schwartz</t>
+  </si>
+  <si>
+    <t>Mario Ferraro</t>
+  </si>
+  <si>
+    <t>Dylan DeMelo</t>
+  </si>
+  <si>
+    <t>Dylan McIlrath</t>
+  </si>
+  <si>
+    <t>Cole Reinhardt</t>
+  </si>
+  <si>
+    <t>Drew O'Connor</t>
+  </si>
+  <si>
+    <t>Ian Cole</t>
+  </si>
+  <si>
+    <t>Easton Cowan</t>
+  </si>
+  <si>
+    <t>Darren Raddysh</t>
+  </si>
+  <si>
+    <t>Dylan Holloway</t>
+  </si>
+  <si>
+    <t>Frederick Gaudreau</t>
+  </si>
+  <si>
+    <t>Macklin Celebrini</t>
+  </si>
+  <si>
+    <t>Colin Miller</t>
+  </si>
+  <si>
+    <t>Declan Chisholm</t>
+  </si>
+  <si>
+    <t>Brett Howden</t>
+  </si>
+  <si>
+    <t>David Kampf</t>
+  </si>
+  <si>
+    <t>Dylan Guenther</t>
+  </si>
+  <si>
+    <t>Dakota Mermis</t>
+  </si>
+  <si>
+    <t>Curtis Douglas</t>
+  </si>
+  <si>
+    <t>Dalibor Dvorsky</t>
+  </si>
+  <si>
+    <t>Eeli Tolvanen</t>
+  </si>
+  <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
+    <t>Cole Perfetti</t>
+  </si>
+  <si>
+    <t>Connor McMichael</t>
+  </si>
+  <si>
+    <t>Brayden McNabb</t>
+  </si>
+  <si>
+    <t>Conor Garland</t>
+  </si>
+  <si>
+    <t>Dmitriy Simashev</t>
+  </si>
+  <si>
+    <t>Dakota Joshua</t>
+  </si>
+  <si>
+    <t>Conor Geekie</t>
+  </si>
+  <si>
+    <t>Colton Parayko</t>
+  </si>
+  <si>
+    <t>Chandler Stephenson</t>
+  </si>
+  <si>
+    <t>Dmitry Orlov</t>
+  </si>
+  <si>
+    <t>Cole Koepke</t>
+  </si>
+  <si>
+    <t>Brandon Duhaime</t>
+  </si>
+  <si>
+    <t>Brandon Saad</t>
+  </si>
+  <si>
+    <t>Brock Boeser</t>
+  </si>
+  <si>
+    <t>Clayton Keller</t>
+  </si>
+  <si>
+    <t>Chris Tanev</t>
+  </si>
+  <si>
+    <t>Charles-Edouard D'Astous</t>
+  </si>
+  <si>
+    <t>Cam Fowler</t>
+  </si>
+  <si>
+    <t>Cale Fleury</t>
+  </si>
+  <si>
+    <t>Collin Graf</t>
+  </si>
+  <si>
+    <t>Brad Lambert</t>
+  </si>
+  <si>
+    <t>Anthony Beauvillier</t>
+  </si>
+  <si>
+    <t>Braeden Bowman</t>
+  </si>
+  <si>
+    <t>Braeden Cootes</t>
+  </si>
+  <si>
+    <t>Brandon Tanev</t>
+  </si>
+  <si>
+    <t>Calle Jarnkrok</t>
+  </si>
+  <si>
+    <t>Brayden Point</t>
+  </si>
+  <si>
+    <t>Brayden Schenn</t>
+  </si>
+  <si>
+    <t>Brandon Montour</t>
+  </si>
+  <si>
+    <t>Barclay Goodrow</t>
+  </si>
+  <si>
+    <t>Alex Iafallo</t>
+  </si>
+  <si>
+    <t>Aliaksei Protas</t>
+  </si>
+  <si>
+    <t>Ben Hutton</t>
+  </si>
+  <si>
+    <t>Arshdeep Bains</t>
+  </si>
+  <si>
+    <t>Barrett Hayton</t>
+  </si>
+  <si>
+    <t>Bobby McMann</t>
+  </si>
+  <si>
+    <t>Brandon Hagel</t>
+  </si>
+  <si>
+    <t>Alexey Toropchenko</t>
+  </si>
+  <si>
+    <t>Berkly Catton</t>
+  </si>
+  <si>
+    <t>Alex Wennberg</t>
+  </si>
+  <si>
+    <t>Adam Lowry</t>
+  </si>
+  <si>
+    <t>Alex Ovechkin</t>
+  </si>
+  <si>
+    <t>Alexander Holtz</t>
+  </si>
+  <si>
+    <t>Aatu Raty</t>
+  </si>
+  <si>
+    <t>Andrew Agozzino</t>
+  </si>
+  <si>
+    <t>Auston Matthews</t>
+  </si>
+  <si>
+    <t>Anthony Cirelli</t>
+  </si>
+  <si>
+    <t>Alexandre Texier</t>
+  </si>
+  <si>
+    <t>Adam Larsson</t>
+  </si>
+  <si>
+    <t>Adam Gaudette</t>
+  </si>
+  <si>
+    <t>Pos.</t>
+  </si>
+  <si>
+    <t>Ville Koivunen</t>
+  </si>
+  <si>
+    <t>Tyson Foerster</t>
+  </si>
+  <si>
+    <t>Tyler Kleven</t>
+  </si>
+  <si>
+    <t>Will Cuylle</t>
+  </si>
+  <si>
+    <t>Travis Mitchell</t>
+  </si>
+  <si>
+    <t>Timo Meier</t>
+  </si>
+  <si>
+    <t>Tyson Jost</t>
+  </si>
+  <si>
+    <t>Zack Bolduc</t>
+  </si>
+  <si>
+    <t>Zeev Buium</t>
+  </si>
+  <si>
+    <t>Uvis Balinskis</t>
+  </si>
+  <si>
+    <t>Tristan Broz</t>
+  </si>
+  <si>
+    <t>Trevor Zegras</t>
+  </si>
+  <si>
+    <t>Tim Stutzle</t>
+  </si>
+  <si>
+    <t>Will Borgen</t>
+  </si>
+  <si>
+    <t>Tony DeAngelo</t>
+  </si>
+  <si>
+    <t>Stefan Noesen</t>
+  </si>
+  <si>
+    <t>Steven Stamkos</t>
+  </si>
+  <si>
+    <t>Owen Beck</t>
+  </si>
+  <si>
+    <t>Zach Bogosian</t>
+  </si>
+  <si>
+    <t>Seth Jones</t>
+  </si>
+  <si>
+    <t>Tommy Novak</t>
+  </si>
+  <si>
+    <t>Travis Sanheim</t>
+  </si>
+  <si>
+    <t>Thomas Chabot</t>
+  </si>
+  <si>
+    <t>Vladislav Gavrikov</t>
+  </si>
+  <si>
+    <t>Simon Holmstrom</t>
+  </si>
+  <si>
+    <t>Simon Nemec</t>
+  </si>
+  <si>
+    <t>Spencer Stastney</t>
+  </si>
+  <si>
+    <t>Oliver Kapanen</t>
+  </si>
+  <si>
+    <t>Yakov Trenin</t>
+  </si>
+  <si>
+    <t>Warren Foegele</t>
+  </si>
+  <si>
+    <t>Sam Reinhart</t>
+  </si>
+  <si>
+    <t>Sidney Crosby</t>
+  </si>
+  <si>
+    <t>Travis Konecny</t>
+  </si>
+  <si>
+    <t>Stephen Halliday</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>Scott Mayfield</t>
+  </si>
+  <si>
+    <t>Shane Lachance</t>
+  </si>
+  <si>
+    <t>Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t>Noah Dobson</t>
+  </si>
+  <si>
+    <t>Vladimir Tarasenko</t>
+  </si>
+  <si>
+    <t>Trevor Moore</t>
+  </si>
+  <si>
+    <t>Sam Bennett</t>
+  </si>
+  <si>
+    <t>Sam Poulin</t>
+  </si>
+  <si>
+    <t>Sean Couturier</t>
+  </si>
+  <si>
+    <t>Shane Pinto</t>
+  </si>
+  <si>
+    <t>Urho Vaakanainen</t>
+  </si>
+  <si>
+    <t>Ryan Pulock</t>
+  </si>
+  <si>
+    <t>Paul Cotter</t>
+  </si>
+  <si>
+    <t>Roman Josi</t>
+  </si>
+  <si>
+    <t>Nick Suzuki</t>
+  </si>
+  <si>
+    <t>Tyler Pitlick</t>
+  </si>
+  <si>
+    <t>Samuel Helenius</t>
+  </si>
+  <si>
+    <t>Noah Gregor</t>
+  </si>
+  <si>
+    <t>Ryan Shea</t>
+  </si>
+  <si>
+    <t>Rodrigo Abols</t>
+  </si>
+  <si>
+    <t>Ridly Greig</t>
+  </si>
+  <si>
+    <t>Taylor Raddysh</t>
+  </si>
+  <si>
+    <t>Maxim Tsyplakov</t>
+  </si>
+  <si>
+    <t>Ondrej Palat</t>
+  </si>
+  <si>
+    <t>Reid Schaefer</t>
+  </si>
+  <si>
+    <t>Mike Matheson</t>
+  </si>
+  <si>
+    <t>Ryan Hartman</t>
+  </si>
+  <si>
+    <t>Quentin Byfield</t>
+  </si>
+  <si>
+    <t>Niko Mikkola</t>
+  </si>
+  <si>
+    <t>Ryan Graves</t>
+  </si>
+  <si>
+    <t>Owen Tippett</t>
+  </si>
+  <si>
+    <t>Nikolas Matinpalo</t>
+  </si>
+  <si>
+    <t>Scott Morrow</t>
+  </si>
+  <si>
+    <t>Maxim Shabanov</t>
+  </si>
+  <si>
+    <t>Nico Hischier</t>
+  </si>
+  <si>
+    <t>Ozzy Wiesblatt</t>
+  </si>
+  <si>
+    <t>Lane Hutson</t>
+  </si>
+  <si>
+    <t>Nico Sturm</t>
+  </si>
+  <si>
+    <t>Philip Danault</t>
+  </si>
+  <si>
+    <t>Mackie Samoskevich</t>
+  </si>
+  <si>
+    <t>Philip Tomasino</t>
+  </si>
+  <si>
+    <t>Noah Juulsen</t>
+  </si>
+  <si>
+    <t>Nick Jensen</t>
+  </si>
+  <si>
+    <t>Sam Carrick</t>
+  </si>
+  <si>
+    <t>Matthew Schaefer</t>
+  </si>
+  <si>
+    <t>Nathan Legare</t>
+  </si>
+  <si>
+    <t>Nicolas Hague</t>
+  </si>
+  <si>
+    <t>Kaiden Guhle</t>
+  </si>
+  <si>
+    <t>Matt Boldy</t>
+  </si>
+  <si>
+    <t>Mikey Anderson</t>
+  </si>
+  <si>
+    <t>Luke Kunin</t>
+  </si>
+  <si>
+    <t>Parker Wotherspoon</t>
+  </si>
+  <si>
+    <t>Noah Cates</t>
+  </si>
+  <si>
+    <t>Nick Cousins</t>
+  </si>
+  <si>
+    <t>Noah Laba</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
+  </si>
+  <si>
+    <t>Luke Hughes</t>
+  </si>
+  <si>
+    <t>Nick Perbix</t>
+  </si>
+  <si>
+    <t>Juraj Slafkovsky</t>
+  </si>
+  <si>
+    <t>Mats Zuccarello</t>
+  </si>
+  <si>
+    <t>Kevin Fiala</t>
+  </si>
+  <si>
+    <t>Jonah Gadjovich</t>
+  </si>
+  <si>
+    <t>Matt Dumba</t>
+  </si>
+  <si>
+    <t>Nikita Grebenkin</t>
+  </si>
+  <si>
+    <t>Michael Amadio</t>
+  </si>
+  <si>
+    <t>Mika Zibanejad</t>
+  </si>
+  <si>
+    <t>Marc Gatcomb</t>
+  </si>
+  <si>
+    <t>Luke Glendening</t>
+  </si>
+  <si>
+    <t>Nick Blankenburg</t>
+  </si>
+  <si>
+    <t>Josh Anderson</t>
+  </si>
+  <si>
+    <t>Marcus Johansson</t>
+  </si>
+  <si>
+    <t>Joel Edmundson</t>
+  </si>
+  <si>
+    <t>Jesper Boqvist</t>
+  </si>
+  <si>
+    <t>Kris Letang</t>
+  </si>
+  <si>
+    <t>Nicolas Deslauriers</t>
+  </si>
+  <si>
+    <t>Lars Eller</t>
+  </si>
+  <si>
+    <t>Matthew Robertson</t>
+  </si>
+  <si>
+    <t>Kyle Palmieri</t>
+  </si>
+  <si>
+    <t>Juho Lammikko</t>
+  </si>
+  <si>
+    <t>Michael McCarron</t>
+  </si>
+  <si>
+    <t>Joe Veleno</t>
+  </si>
+  <si>
+    <t>Marcus Foligno</t>
+  </si>
+  <si>
+    <t>Joel Armia</t>
+  </si>
+  <si>
+    <t>Jeff Petry</t>
+  </si>
+  <si>
+    <t>Kevin Hayes</t>
+  </si>
+  <si>
+    <t>Nick Seeler</t>
+  </si>
+  <si>
+    <t>Kurtis MacDermid</t>
+  </si>
+  <si>
+    <t>Jonny Brodzinski</t>
+  </si>
+  <si>
+    <t>Kyle MacLean</t>
+  </si>
+  <si>
+    <t>Jonas Siegenthaler</t>
+  </si>
+  <si>
+    <t>Michael Bunting</t>
+  </si>
+  <si>
+    <t>Jayden Struble</t>
+  </si>
+  <si>
+    <t>Marco Rossi</t>
+  </si>
+  <si>
+    <t>Jeff Malott</t>
+  </si>
+  <si>
+    <t>Jack Devine</t>
+  </si>
+  <si>
+    <t>Joona Koppanen</t>
+  </si>
+  <si>
+    <t>Matvei Michkov</t>
+  </si>
+  <si>
+    <t>Jordan Spence</t>
+  </si>
+  <si>
+    <t>Jaroslav Chmelar</t>
+  </si>
+  <si>
+    <t>Jonathan Drouin</t>
+  </si>
+  <si>
+    <t>Jesper Bratt</t>
+  </si>
+  <si>
+    <t>Matthew Wood</t>
+  </si>
+  <si>
+    <t>Jared Davidson</t>
+  </si>
+  <si>
+    <t>Liam Ohgren</t>
+  </si>
+  <si>
+    <t>Jacob Moverare</t>
+  </si>
+  <si>
+    <t>Gustav Forsling</t>
+  </si>
+  <si>
+    <t>Harrison Brunicke</t>
+  </si>
+  <si>
+    <t>Jett Luchanko</t>
+  </si>
+  <si>
+    <t>Jake Sanderson</t>
+  </si>
+  <si>
+    <t>J.T. Miller</t>
+  </si>
+  <si>
+    <t>Jean-Gabriel Pageau</t>
+  </si>
+  <si>
+    <t>Evgenii Dadonov</t>
+  </si>
+  <si>
+    <t>Luke Evangelista</t>
+  </si>
+  <si>
+    <t>Jake Evans</t>
+  </si>
+  <si>
+    <t>Kirill Kaprizov</t>
+  </si>
+  <si>
+    <t>Drew Doughty</t>
+  </si>
+  <si>
+    <t>Evan Rodrigues</t>
+  </si>
+  <si>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
+    <t>Jamie Drysdale</t>
+  </si>
+  <si>
+    <t>Hayden Hodgson</t>
+  </si>
+  <si>
+    <t>Conor Sheary</t>
+  </si>
+  <si>
+    <t>Emil Heineman</t>
+  </si>
+  <si>
+    <t>Dougie Hamilton</t>
+  </si>
+  <si>
+    <t>Justin Barron</t>
+  </si>
+  <si>
+    <t>Ivan Demidov</t>
+  </si>
+  <si>
+    <t>Jonas Brodin</t>
+  </si>
+  <si>
+    <t>Corey Perry</t>
+  </si>
+  <si>
+    <t>Eetu Luostarinen</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Jacob Gaucher</t>
+  </si>
+  <si>
+    <t>Fabian Zetterlund</t>
+  </si>
+  <si>
+    <t>Carson Soucy</t>
+  </si>
+  <si>
+    <t>Casey Cizikas</t>
+  </si>
+  <si>
+    <t>Dennis Cholowski</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
+    <t>Florian Xhekaj</t>
+  </si>
+  <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
+    <t>Cody Ceci</t>
+  </si>
+  <si>
+    <t>Donovan Sebrango</t>
+  </si>
+  <si>
+    <t>Danton Heinen</t>
+  </si>
+  <si>
+    <t>Garnet Hathaway</t>
+  </si>
+  <si>
+    <t>Dylan Cozens</t>
+  </si>
+  <si>
+    <t>Brett Berard</t>
+  </si>
+  <si>
+    <t>Calum Ritchie</t>
+  </si>
+  <si>
+    <t>Dawson Mercer</t>
+  </si>
+  <si>
+    <t>Filip Forsberg</t>
+  </si>
+  <si>
+    <t>Cole Caufield</t>
+  </si>
+  <si>
+    <t>Jared Spurgeon</t>
+  </si>
+  <si>
+    <t>Brian Dumoulin</t>
+  </si>
+  <si>
+    <t>Dmitry Kulikov</t>
+  </si>
+  <si>
+    <t>Connor Dewar</t>
+  </si>
+  <si>
+    <t>Emil Andrae</t>
+  </si>
+  <si>
+    <t>Drake Batherson</t>
+  </si>
+  <si>
+    <t>Brennan Othmann</t>
+  </si>
+  <si>
+    <t>Bo Horvat</t>
+  </si>
+  <si>
+    <t>Connor Brown</t>
+  </si>
+  <si>
+    <t>Fedor Svechkov</t>
+  </si>
+  <si>
+    <t>Brendan Gallagher</t>
+  </si>
+  <si>
+    <t>Jake Middleton</t>
+  </si>
+  <si>
+    <t>Brandt Clarke</t>
+  </si>
+  <si>
+    <t>Cole Schwindt</t>
+  </si>
+  <si>
+    <t>Connor Clifton</t>
+  </si>
+  <si>
+    <t>Egor Zamula</t>
+  </si>
+  <si>
+    <t>Braden Schneider</t>
+  </si>
+  <si>
+    <t>Anthony Duclair</t>
+  </si>
+  <si>
+    <t>Colton White</t>
+  </si>
+  <si>
+    <t>Erik Haula</t>
+  </si>
+  <si>
+    <t>Arber Xhekaj</t>
+  </si>
+  <si>
+    <t>Hunter Haight</t>
+  </si>
+  <si>
+    <t>Anze Kopitar</t>
+  </si>
+  <si>
+    <t>Carter Verhaeghe</t>
+  </si>
+  <si>
+    <t>Bryan Rust</t>
+  </si>
+  <si>
+    <t>Christian Dvorak</t>
+  </si>
+  <si>
+    <t>David Perron</t>
+  </si>
+  <si>
+    <t>Artemi Panarin</t>
+  </si>
+  <si>
+    <t>Anders Lee</t>
+  </si>
+  <si>
+    <t>Cody Glass</t>
+  </si>
+  <si>
+    <t>Cole Smith</t>
+  </si>
+  <si>
+    <t>Danila Yurov</t>
+  </si>
+  <si>
+    <t>Andrei Kuzmenko</t>
+  </si>
+  <si>
+    <t>Brad Marchand</t>
+  </si>
+  <si>
+    <t>Blake Lizotte</t>
+  </si>
+  <si>
+    <t>Cam York</t>
+  </si>
+  <si>
+    <t>Claude Giroux</t>
+  </si>
+  <si>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
+    <t>Alexander Romanov</t>
+  </si>
+  <si>
+    <t>Brian Halonen</t>
+  </si>
+  <si>
+    <t>Brady Skjei</t>
+  </si>
+  <si>
+    <t>Alexandre Carrier</t>
+  </si>
+  <si>
+    <t>Daemon Hunt</t>
+  </si>
+  <si>
+    <t>Alex Turcotte</t>
+  </si>
+  <si>
+    <t>Anton Lundell</t>
+  </si>
+  <si>
+    <t>Ben Kindel</t>
+  </si>
+  <si>
+    <t>Bobby Brink</t>
+  </si>
+  <si>
+    <t>Brady Tkachuk</t>
+  </si>
+  <si>
+    <t>Adam Fox</t>
+  </si>
+  <si>
+    <t>Adam Pelech</t>
+  </si>
+  <si>
+    <t>Brendan Dillon</t>
+  </si>
+  <si>
+    <t>Brady Martin</t>
+  </si>
+  <si>
+    <t>Alex Newhook</t>
+  </si>
+  <si>
+    <t>Brock Faber</t>
+  </si>
+  <si>
+    <t>Alex Laferriere</t>
+  </si>
+  <si>
+    <t>Aaron Ekblad</t>
+  </si>
+  <si>
+    <t>Anthony Mantha</t>
+  </si>
+  <si>
+    <t>Adam Ginning</t>
+  </si>
+  <si>
+    <t>Artem Zub</t>
+  </si>
+  <si>
+    <t>Adam Edstrom</t>
+  </si>
+  <si>
+    <t>Adam Boqvist</t>
+  </si>
+  <si>
+    <t>Arseny Gritsyuk</t>
+  </si>
+  <si>
+    <t>Adam Wilsby</t>
+  </si>
+  <si>
+    <t>Adam Engstrom</t>
+  </si>
+  <si>
+    <t>Ben Jones</t>
+  </si>
+  <si>
+    <t>Adrian Kempe</t>
+  </si>
+  <si>
+    <t>A.J. Greer</t>
+  </si>
+  <si>
+    <t>Zach Hyman</t>
+  </si>
+  <si>
+    <t>Travis Hamonic</t>
+  </si>
+  <si>
+    <t>Wyatt Johnston</t>
+  </si>
+  <si>
+    <t>Zach Aston-Reese</t>
+  </si>
+  <si>
+    <t>Zakhar Bardakov</t>
+  </si>
+  <si>
+    <t>William Carrier</t>
+  </si>
+  <si>
+    <t>Zayne Parekh</t>
+  </si>
+  <si>
+    <t>Zach Benson</t>
+  </si>
+  <si>
+    <t>Tanner Jeannot</t>
+  </si>
+  <si>
+    <t>Vasily Podkolzin</t>
+  </si>
+  <si>
+    <t>Simon Edvinsson</t>
+  </si>
+  <si>
+    <t>Vladislav Kolyachonok</t>
+  </si>
+  <si>
+    <t>Zach Werenski</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Wyatt Kaiser</t>
+  </si>
+  <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Yegor Sharangovich</t>
+  </si>
+  <si>
+    <t>Tyson Kozak</t>
+  </si>
+  <si>
+    <t>Sean Kuraly</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
+    <t>Ty Emberson</t>
+  </si>
+  <si>
+    <t>Patrick Kane</t>
+  </si>
+  <si>
+    <t>Tyler Seguin</t>
+  </si>
+  <si>
+    <t>Yegor Chinakhov</t>
+  </si>
+  <si>
+    <t>Valeri Nichushkin</t>
+  </si>
+  <si>
+    <t>Tyler Bertuzzi</t>
+  </si>
+  <si>
+    <t>Shayne Gostisbehere</t>
+  </si>
+  <si>
+    <t>Yan Kuznetsov</t>
+  </si>
+  <si>
+    <t>Tage Thompson</t>
+  </si>
+  <si>
+    <t>Riley Tufte</t>
+  </si>
+  <si>
+    <t>Sam Colangelo</t>
+  </si>
+  <si>
+    <t>Trent Frederic</t>
+  </si>
+  <si>
+    <t>Nate Danielson</t>
+  </si>
+  <si>
+    <t>Thomas Harley</t>
+  </si>
+  <si>
+    <t>Sean Monahan</t>
+  </si>
+  <si>
+    <t>Tristen Nielsen</t>
+  </si>
+  <si>
+    <t>Teuvo Teravainen</t>
+  </si>
+  <si>
+    <t>Seth Jarvis</t>
+  </si>
+  <si>
+    <t>Samuel Honzek</t>
+  </si>
+  <si>
+    <t>Ryan McLeod</t>
+  </si>
+  <si>
+    <t>Pavel Zacha</t>
+  </si>
+  <si>
+    <t>Ryan Strome</t>
+  </si>
+  <si>
+    <t>Ryan Nugent-Hopkins</t>
+  </si>
+  <si>
+    <t>Moritz Seider</t>
+  </si>
+  <si>
+    <t>Sam Steel</t>
+  </si>
+  <si>
+    <t>Miles Wood</t>
+  </si>
+  <si>
+    <t>Samuel Girard</t>
+  </si>
+  <si>
+    <t>Sam Rinzel</t>
+  </si>
+  <si>
+    <t>Sebastian Aho</t>
+  </si>
+  <si>
+    <t>Ryan Lomberg</t>
+  </si>
+  <si>
+    <t>Ryan Johnson</t>
+  </si>
+  <si>
+    <t>Nikita Zadorov</t>
+  </si>
+  <si>
+    <t>Ryan Poehling</t>
+  </si>
+  <si>
+    <t>Noah Philp</t>
+  </si>
+  <si>
+    <t>Michael Rasmussen</t>
+  </si>
+  <si>
+    <t>Roope Hintz</t>
+  </si>
+  <si>
+    <t>Mathieu Olivier</t>
+  </si>
+  <si>
+    <t>Sam Malinski</t>
+  </si>
+  <si>
+    <t>Sam Lafferty</t>
+  </si>
+  <si>
+    <t>Sean Walker</t>
+  </si>
+  <si>
+    <t>Rasmus Andersson</t>
+  </si>
+  <si>
+    <t>Rasmus Dahlin</t>
+  </si>
+  <si>
+    <t>Morgan Geekie</t>
+  </si>
+  <si>
+    <t>Ross Johnston</t>
+  </si>
+  <si>
+    <t>Mattias Janmark</t>
+  </si>
+  <si>
+    <t>Michael Brandsegg-Nygard</t>
+  </si>
+  <si>
+    <t>Radek Faksa</t>
+  </si>
+  <si>
+    <t>Luca Pinelli</t>
+  </si>
+  <si>
+    <t>Ross Colton</t>
+  </si>
+  <si>
+    <t>Ryan Greene</t>
+  </si>
+  <si>
+    <t>Nikolaj Ehlers</t>
+  </si>
+  <si>
+    <t>Nazem Kadri</t>
+  </si>
+  <si>
+    <t>Peyton Krebs</t>
+  </si>
+  <si>
+    <t>Michael Eyssimont</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Mattias Ekholm</t>
+  </si>
+  <si>
+    <t>Mason Appleton</t>
+  </si>
+  <si>
+    <t>Oskar Back</t>
+  </si>
+  <si>
+    <t>Kirill Marchenko</t>
+  </si>
+  <si>
+    <t>Parker Kelly</t>
+  </si>
+  <si>
+    <t>Ryan Donato</t>
+  </si>
+  <si>
+    <t>Mike Reilly</t>
+  </si>
+  <si>
+    <t>Morgan Frost</t>
+  </si>
+  <si>
+    <t>Owen Power</t>
+  </si>
+  <si>
+    <t>Michael Callahan</t>
+  </si>
+  <si>
+    <t>Pavel Mintyukov</t>
+  </si>
+  <si>
+    <t>Matt Savoie</t>
+  </si>
+  <si>
+    <t>Marco Kasper</t>
+  </si>
+  <si>
+    <t>Nils Lundkvist</t>
+  </si>
+  <si>
+    <t>Kent Johnson</t>
+  </si>
+  <si>
+    <t>Nathan MacKinnon</t>
+  </si>
+  <si>
+    <t>Oliver Moore</t>
+  </si>
+  <si>
+    <t>Mark Jankowski</t>
+  </si>
+  <si>
+    <t>Mikael Backlund</t>
+  </si>
+  <si>
+    <t>Noah Ostlund</t>
+  </si>
+  <si>
+    <t>Mason Lohrei</t>
+  </si>
+  <si>
+    <t>Olen Zellweger</t>
+  </si>
+  <si>
+    <t>Leon Draisaitl</t>
+  </si>
+  <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
+    <t>Nathan Bastian</t>
+  </si>
+  <si>
+    <t>Jake Christiansen</t>
+  </si>
+  <si>
+    <t>Martin Necas</t>
+  </si>
+  <si>
+    <t>Nick Foligno</t>
+  </si>
+  <si>
+    <t>Logan Stankoven</t>
+  </si>
+  <si>
+    <t>Matvei Gridin</t>
+  </si>
+  <si>
+    <t>Michael Kesselring</t>
+  </si>
+  <si>
+    <t>Mark Kastelic</t>
+  </si>
+  <si>
+    <t>Nikita Nesterenko</t>
+  </si>
+  <si>
+    <t>Kasperi Kapanen</t>
+  </si>
+  <si>
+    <t>Jonatan Berggren</t>
+  </si>
+  <si>
+    <t>Miro Heiskanen</t>
+  </si>
+  <si>
+    <t>Ivan Provorov</t>
+  </si>
+  <si>
+    <t>Josh Manson</t>
+  </si>
+  <si>
+    <t>Matt Grzelcyk</t>
+  </si>
+  <si>
+    <t>K'Andre Miller</t>
+  </si>
+  <si>
+    <t>Matt Coronato</t>
+  </si>
+  <si>
+    <t>Mattias Samuelsson</t>
+  </si>
+  <si>
+    <t>Marat Khusnutdinov</t>
+  </si>
+  <si>
+    <t>Mikael Granlund</t>
+  </si>
+  <si>
+    <t>Jake Walman</t>
+  </si>
+  <si>
+    <t>James van Riemsdyk</t>
+  </si>
+  <si>
+    <t>Mikko Rantanen</t>
+  </si>
+  <si>
+    <t>Isac Lundestrom</t>
+  </si>
+  <si>
+    <t>Joel Kiviranta</t>
+  </si>
+  <si>
+    <t>Justin Robidas</t>
+  </si>
+  <si>
+    <t>MacKenzie Weegar</t>
+  </si>
+  <si>
+    <t>Justin Danforth</t>
+  </si>
+  <si>
+    <t>Jonathan Aspirot</t>
+  </si>
+  <si>
+    <t>Mason McTavish</t>
+  </si>
+  <si>
+    <t>Jack Roslovic</t>
+  </si>
+  <si>
+    <t>Jacob Bernard-Docker</t>
+  </si>
+  <si>
+    <t>Mavrik Bourque</t>
+  </si>
+  <si>
+    <t>Erik Gudbranson</t>
+  </si>
+  <si>
+    <t>Jack Drury</t>
+  </si>
+  <si>
+    <t>Louis Crevier</t>
+  </si>
+  <si>
+    <t>Jordan Staal</t>
+  </si>
+  <si>
+    <t>Kevin Bahl</t>
+  </si>
+  <si>
+    <t>Josh Dunne</t>
+  </si>
+  <si>
+    <t>John Beecher</t>
+  </si>
+  <si>
+    <t>Leo Carlsson</t>
+  </si>
+  <si>
+    <t>Evan Bouchard</t>
+  </si>
+  <si>
+    <t>J.T. Compher</t>
+  </si>
+  <si>
+    <t>Matt Duchene</t>
+  </si>
+  <si>
+    <t>Dmitri Voronkov</t>
+  </si>
+  <si>
+    <t>Jack Ahcan</t>
+  </si>
+  <si>
+    <t>Landon Slaggert</t>
+  </si>
+  <si>
+    <t>Jordan Martinook</t>
+  </si>
+  <si>
+    <t>Jonathan Huberdeau</t>
+  </si>
+  <si>
+    <t>Josh Doan</t>
+  </si>
+  <si>
+    <t>Jeffrey Viel</t>
+  </si>
+  <si>
+    <t>Jansen Harkins</t>
+  </si>
+  <si>
+    <t>David Tomasek</t>
+  </si>
+  <si>
+    <t>Erik Gustafsson</t>
+  </si>
+  <si>
+    <t>Lian Bichsel</t>
+  </si>
+  <si>
+    <t>Denton Mateychuk</t>
+  </si>
+  <si>
+    <t>Ivan Ivan</t>
+  </si>
+  <si>
+    <t>Jason Dickinson</t>
+  </si>
+  <si>
+    <t>Joel Nystrom</t>
+  </si>
+  <si>
+    <t>Jordan Greenway</t>
+  </si>
+  <si>
+    <t>Hampus Lindholm</t>
+  </si>
+  <si>
+    <t>Jacob Trouba</t>
+  </si>
+  <si>
+    <t>Darnell Nurse</t>
+  </si>
+  <si>
+    <t>Emmitt Finnie</t>
+  </si>
+  <si>
+    <t>Kyle Capobianco</t>
+  </si>
+  <si>
+    <t>Dante Fabbro</t>
+  </si>
+  <si>
+    <t>Ilya Solovyov</t>
+  </si>
+  <si>
+    <t>Ilya Mikheyev</t>
+  </si>
+  <si>
+    <t>Jalen Chatfield</t>
+  </si>
+  <si>
+    <t>Joel Hanley</t>
+  </si>
+  <si>
+    <t>Jason Zucker</t>
+  </si>
+  <si>
+    <t>Georgii Merkulov</t>
+  </si>
+  <si>
+    <t>Jackson LaCombe</t>
+  </si>
+  <si>
+    <t>Curtis Lazar</t>
+  </si>
+  <si>
+    <t>Elmer Soderblom</t>
+  </si>
+  <si>
+    <t>Justin Hryckowian</t>
+  </si>
+  <si>
+    <t>Damon Severson</t>
+  </si>
+  <si>
+    <t>Gavin Brindley</t>
+  </si>
+  <si>
+    <t>Frank Nazar</t>
+  </si>
+  <si>
+    <t>Jackson Blake</t>
+  </si>
+  <si>
+    <t>Joel Farabee</t>
+  </si>
+  <si>
+    <t>Jacob Bryson</t>
+  </si>
+  <si>
+    <t>Fraser Minten</t>
+  </si>
+  <si>
+    <t>Ian Moore</t>
+  </si>
+  <si>
+    <t>Connor McDavid</t>
+  </si>
+  <si>
+    <t>Dylan Larkin</t>
+  </si>
+  <si>
+    <t>Jason Robertson</t>
+  </si>
+  <si>
+    <t>Cole Sillinger</t>
+  </si>
+  <si>
+    <t>Gabriel Landeskog</t>
+  </si>
+  <si>
+    <t>Connor Murphy</t>
+  </si>
+  <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>Jake Bean</t>
+  </si>
+  <si>
+    <t>Jack Quinn</t>
+  </si>
+  <si>
+    <t>Elias Lindholm</t>
+  </si>
+  <si>
+    <t>Frank Vatrano</t>
+  </si>
+  <si>
+    <t>Connor Clattenburg</t>
+  </si>
+  <si>
+    <t>Ben Chiarot</t>
+  </si>
+  <si>
+    <t>Jamie Benn</t>
+  </si>
+  <si>
+    <t>Charlie Coyle</t>
+  </si>
+  <si>
+    <t>Devon Toews</t>
+  </si>
+  <si>
+    <t>Connor Bedard</t>
+  </si>
+  <si>
+    <t>Eric Robinson</t>
+  </si>
+  <si>
+    <t>Dryden Hunt</t>
+  </si>
+  <si>
+    <t>Isak Rosen</t>
+  </si>
+  <si>
+    <t>David Pastrnak</t>
+  </si>
+  <si>
+    <t>Drew Helleson</t>
+  </si>
+  <si>
+    <t>Brett Kulak</t>
+  </si>
+  <si>
+    <t>Axel Sandin Pellikka</t>
+  </si>
+  <si>
+    <t>Ilya Lyubushkin</t>
+  </si>
+  <si>
+    <t>Brendan Smith</t>
+  </si>
+  <si>
+    <t>Cale Makar</t>
+  </si>
+  <si>
+    <t>Colton Dach</t>
+  </si>
+  <si>
+    <t>Charles-Alexis Legault</t>
+  </si>
+  <si>
+    <t>Connor Zary</t>
+  </si>
+  <si>
+    <t>Conor Timmins</t>
+  </si>
+  <si>
+    <t>Charlie McAvoy</t>
+  </si>
+  <si>
+    <t>Cutter Gauthier</t>
+  </si>
+  <si>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
+    <t>Andrew Copp</t>
+  </si>
+  <si>
+    <t>Esa Lindell</t>
+  </si>
+  <si>
+    <t>Brendan Gaunce</t>
+  </si>
+  <si>
+    <t>Brock Nelson</t>
+  </si>
+  <si>
+    <t>Artyom Levshunov</t>
+  </si>
+  <si>
+    <t>Bradly Nadeau</t>
+  </si>
+  <si>
+    <t>Brayden Pachal</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
+  </si>
+  <si>
+    <t>Casey Mittelstadt</t>
+  </si>
+  <si>
+    <t>Chris Kreider</t>
+  </si>
+  <si>
+    <t>Alec Regula</t>
+  </si>
+  <si>
+    <t>Alex DeBrincat</t>
+  </si>
+  <si>
+    <t>Colin Blackwell</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
+    <t>Andre Burakovsky</t>
+  </si>
+  <si>
+    <t>Andrei Svechnikov</t>
+  </si>
+  <si>
+    <t>Blake Coleman</t>
+  </si>
+  <si>
+    <t>Beck Malenstyn</t>
+  </si>
+  <si>
+    <t>Andrew Peeke</t>
+  </si>
+  <si>
+    <t>Beckett Sennecke</t>
+  </si>
+  <si>
+    <t>Adam Henrique</t>
+  </si>
+  <si>
+    <t>Albert Johansson</t>
+  </si>
+  <si>
+    <t>Alexander Petrovic</t>
+  </si>
+  <si>
+    <t>Adam Fantilli</t>
+  </si>
+  <si>
+    <t>Artturi Lehkonen</t>
+  </si>
+  <si>
+    <t>Alex Vlasic</t>
+  </si>
+  <si>
+    <t>Alexander Nikishin</t>
+  </si>
+  <si>
+    <t>Adam Klapka</t>
+  </si>
+  <si>
+    <t>Alex Tuch</t>
+  </si>
+  <si>
+    <t>Alex Steeves</t>
+  </si>
+  <si>
+    <t>Alex Killorn</t>
   </si>
 </sst>
 </file>
@@ -588,7 +2782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -736,12 +2930,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -794,6 +2997,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,7 +3012,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,16 +3366,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1549,12 +3755,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -1687,12 +3893,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -1865,12 +4071,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -1993,12 +4199,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -2211,12 +4417,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -2319,12 +4525,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -2537,12 +4743,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -2685,12 +4891,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -2823,12 +5029,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -3011,12 +5217,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -3148,14 +5354,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3371,12 +5577,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -3559,12 +5765,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -3697,12 +5903,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -3915,12 +6121,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -4093,12 +6299,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -4221,12 +6427,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -4439,12 +6645,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -4657,12 +6863,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -4795,12 +7001,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -4993,12 +7199,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -5131,12 +7337,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -5269,12 +7475,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -5532,6 +7738,4956 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101C916-4531-4CC3-9841-9A749DA2F140}">
+  <dimension ref="A1:V79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="20"/>
+      <c r="S1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="U1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="20"/>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="20"/>
+      <c r="O27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" s="20"/>
+      <c r="S27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="20"/>
+      <c r="U27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V27" s="20"/>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="20"/>
+      <c r="K53" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" s="20"/>
+      <c r="M53" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N53" s="20"/>
+      <c r="O53" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R53" s="20"/>
+      <c r="S53" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T53" s="20"/>
+    </row>
+    <row r="54" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R54" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAF5206-6C7C-473B-8F0B-07B9A3759B8D}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -5615,7 +12771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B91472E-4D39-4CBF-835E-AF9911F7483D}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -5705,7 +12861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382A3BCE-3DD0-4FB1-AA8D-E38E15F0E8C1}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -5787,7 +12943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F22414-DCF1-431F-B2AF-F974F196AC5F}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -5877,7 +13033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BACF060-4E7F-4AA8-A355-A086A9786A7E}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -5959,7 +13115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FF41F6-B929-44A9-8858-3334C7064282}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -6049,7 +13205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0DD87-20B3-4906-BF2A-195B68E381FB}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -6125,98 +13281,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M1" location="'Scores (12-4-25)'!A1" display="HOME" xr:uid="{E9EFE30F-74FE-40F2-BAC8-89E544A55DD7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3950FBB5-9B9A-47B2-AD2A-C8C3DE5BF2C2}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="17"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (12-5-25)'!A1" display="HOME" xr:uid="{3BE2B220-F3B9-48A7-850C-4D7F1A20FF51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6241,12 +13305,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -6412,6 +13476,98 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3950FBB5-9B9A-47B2-AD2A-C8C3DE5BF2C2}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="17"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (12-5-25)'!A1" display="HOME" xr:uid="{3BE2B220-F3B9-48A7-850C-4D7F1A20FF51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F553D59-91CE-4802-B179-87B4048B6222}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -6495,7 +13651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A60243-0ACC-48A5-ABF1-7E38FAC98B41}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -6585,7 +13741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D57F76-C9D4-41CB-B0B0-DA883C65EC9A}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -6667,7 +13823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03967552-8C1B-44A1-90CC-36C6C1C5080E}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -6757,7 +13913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C5D13B-E21F-417E-A86E-D2D02AA17D7E}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -6839,7 +13995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE6FDFD-D0AA-4474-8610-9A9436FF1F14}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -6929,7 +14085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172C6648-638E-4379-A24F-9F67AE430539}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -7011,7 +14167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4C34F7-25BF-4FAF-A888-6BE7C3C5A316}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -7101,7 +14257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44990BBB-6DFC-4485-97DA-7A270C45A7FC}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -7177,96 +14333,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M1" location="'Scores (12-9-25)'!A1" display="HOME" xr:uid="{7F498451-1DF7-424E-A44E-C74E55D0DD78}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3975B80-5243-462A-8FDD-ACBE03861CFE}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="17"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (12-10-25)'!A1" display="HOME" xr:uid="{8417E20B-3FEA-4046-8329-C39DDD19B2E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7291,12 +14357,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -7412,6 +14478,96 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3975B80-5243-462A-8FDD-ACBE03861CFE}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="17"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (12-10-25)'!A1" display="HOME" xr:uid="{8417E20B-3FEA-4046-8329-C39DDD19B2E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76642AA4-591A-41D0-BC40-DD39B979FA8D}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -7493,7 +14649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5DA905-F61C-44F3-A880-F395D64854B7}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -7583,7 +14739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444B0A13-1376-44FA-A207-68F2490F6994}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -7665,7 +14821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E081EDE-5D47-418A-A8BD-E5D80C4BF1B5}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -7755,7 +14911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8286ABBF-289B-43E0-997F-323A17BFA987}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -7837,7 +14993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3D5B14-16F9-4098-88E9-128F604A4473}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -7927,7 +15083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6C848D-3DBA-46AE-867B-69B331E35625}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -8009,7 +15165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DF70B5-DFB9-4F6A-8603-65259513E193}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -8099,7 +15255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7101D31F-EDE5-48AF-9677-BC8AF0C6FDCA}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -8175,98 +15331,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M1" location="'Scores (12-14-25)'!A1" display="HOME" xr:uid="{CD32F3D4-6E6A-4960-A178-0075EE7A3F58}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3CA8F2-EF58-4F7F-9243-D77EAD47E463}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="17"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (12-15-25)'!A1" display="HOME" xr:uid="{9152D413-FD8E-4DF7-BECB-DAA811A157F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8291,12 +15355,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -8462,6 +15526,98 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3CA8F2-EF58-4F7F-9243-D77EAD47E463}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="17"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (12-15-25)'!A1" display="HOME" xr:uid="{9152D413-FD8E-4DF7-BECB-DAA811A157F3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC80899-6CAC-44DC-9993-9FAA2B24AD4D}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -8545,7 +15701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0239EC5-5C5A-4818-9FC5-FC6818042243}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -8635,7 +15791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F331E969-72C6-40DA-A0D8-F17D283D57B7}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -8717,7 +15873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C32CC-9B6F-4287-A8CE-DC78C5CCD670}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -8807,7 +15963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343C84DC-C587-4422-9B75-C930B18BF207}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -8889,7 +16045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38D6A6E-5A0C-41EB-A6E2-5EDC516695E4}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -8979,7 +16135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7201AB15-B748-443B-B1CE-9E42CF781121}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -9061,7 +16217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A527AA-6B32-4CEE-B798-CFF98B14D78D}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -9153,7 +16309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F45BDF-E529-4FC7-A581-7DFCDB31A824}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -9231,96 +16387,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M1" location="'Scores (12-19-25)'!A1" display="HOME" xr:uid="{00C5411C-CFC9-415C-BA5D-9C0057D0DE81}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8426581D-A52A-4F7B-962E-81EB46A09D07}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="17"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (12-20-25)'!A1" display="HOME" xr:uid="{8D2A55F1-F178-4AE3-B336-1958C925CC34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9345,12 +16411,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -9466,6 +16532,96 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8426581D-A52A-4F7B-962E-81EB46A09D07}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="17"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (12-20-25)'!A1" display="HOME" xr:uid="{8D2A55F1-F178-4AE3-B336-1958C925CC34}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D816AA-8827-4F72-AFF7-A3726726A075}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -9547,7 +16703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C040C279-0282-42C9-B63B-0825BE89A9C3}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -9637,7 +16793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47710B0-E2F1-4F0D-826E-E96501788D14}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -9719,7 +16875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8245A1F3-2314-4A4E-9373-383D2851D13D}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -9809,7 +16965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF4981-895F-4E36-A455-4EC68EA66501}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -9891,7 +17047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D65B666-E16D-4F92-9924-9D167548E50A}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -9981,7 +17137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E92DE9-7A6C-4DFD-A979-8F8D6741B85B}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10063,7 +17219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2516EFF9-28F2-4320-968F-73DC3551BEEC}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -10155,7 +17311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFA1B69-BDC9-470A-A2B4-5EBADE2CDDB8}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10233,96 +17389,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M1" location="'Scores (12-27-25)'!A1" display="HOME" xr:uid="{72AEE2F8-F7C0-46B9-A78E-3FC1ED435B21}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768931E2-0DF8-40BB-A5D9-14074DD8559B}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="17"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (12-28-25)'!A1" display="HOME" xr:uid="{B41C595C-23C8-435F-B819-868E50569071}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10347,12 +17413,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
@@ -10538,6 +17604,96 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768931E2-0DF8-40BB-A5D9-14074DD8559B}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="17"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (12-28-25)'!A1" display="HOME" xr:uid="{B41C595C-23C8-435F-B819-868E50569071}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D518F5-9D03-4058-AB7C-4EF943D1773B}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10619,7 +17775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6998EB9-B96B-4304-90C4-71F97F2F3DCC}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -10711,7 +17867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA7385D-CCA4-4954-A56D-6F0E840A7F7E}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10795,7 +17951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6777B33F-9981-4C6A-8C01-AD83E46327A8}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -10887,7 +18043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7DD7FE-6030-43D4-B528-88107C7A043A}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -10971,7 +18127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06225368-C845-486A-B5F1-871F2A4F85C2}">
   <dimension ref="A1:U1"/>
   <sheetViews>
@@ -11063,7 +18219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAC9C7D-502E-411D-93FE-9DB9EE0E12E4}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -11165,12 +18321,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
